--- a/api/Model/Python file for Cartofact data extracting/id.xlsx
+++ b/api/Model/Python file for Cartofact data extracting/id.xlsx
@@ -437,21 +437,21 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>100/07-29-057-03W4/00</t>
+          <t>103/06-29-057-03W4/00</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>103/06-29-057-03W4/00</t>
+          <t>100/08-29-057-03W4/00</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>100/08-29-057-03W4/00</t>
+          <t>100/07-29-057-03W4/00</t>
         </is>
       </c>
     </row>
@@ -500,14 +500,14 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>100/08-21-062-23W5/02</t>
+          <t>100/08-21-062-23W5/00</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>100/08-21-062-23W5/00</t>
+          <t>100/08-21-062-23W5/02</t>
         </is>
       </c>
     </row>

--- a/api/Model/Python file for Cartofact data extracting/id.xlsx
+++ b/api/Model/Python file for Cartofact data extracting/id.xlsx
@@ -367,147 +367,147 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>100/14-26-020-03W4/00</t>
+          <t>0101000020E610000089963C9E96945BC05BB56B425A5D4940</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>100/08-21-022-04W4/00</t>
+          <t>0101000020E6100000FFB3E6C75F9F5BC0174850FC18714940</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>100/08-29-052-16W5/02</t>
+          <t>0101000020E61000003F53AF5B04155DC07A36AB3E57C34A40</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>100/14-29-052-16W5/00</t>
+          <t>0101000020E61000003F53AF5B04155DC07A36AB3E57C34A40</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>100/08-02-013-16W4/00</t>
+          <t>0101000020E61000002C0C91D3D7045CC02E3D9AEAC9064940</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>100/08-01-007-09W4/00</t>
+          <t>0101000020E6100000662D05A4FDC55BC00E2DB29DEFC34840</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>100/02-08-038-17W4/00</t>
+          <t>0101000020E61000009ECF807A33195CC08143A852B31F4A40</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>100/08-32-019-19W4/00</t>
+          <t>0101000020E6100000BF7E880D16265CC04ACFF41263534940</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>100/09-06-002-11W4/02</t>
+          <t>0101000020E610000034BBEEAD48DD5BC0D3F9F02C418C4840</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>100/09-06-002-11W4/00</t>
+          <t>0101000020E610000034BBEEAD48DD5BC0D3F9F02C418C4840</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>103/06-29-057-03W4/00</t>
+          <t>0101000020E61000007AC5538F349A5BC0F627F1B913FA4A40</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>100/08-29-057-03W4/00</t>
+          <t>0101000020E6100000CD052E8F359A5BC02E39EE940EFA4A40</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>100/07-29-057-03W4/00</t>
+          <t>0101000020E610000039D6C56D349A5BC00742B28009FA4A40</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>102/15-28-052-02W4/00</t>
+          <t>0101000020E6100000703FE081018F5BC068CC24EA05C34A40</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>100/06-30-019-02W4/00</t>
+          <t>0101000020E6100000A2D11DC4CE8B5BC01C0A9FAD83594940</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>100/12-14-020-02W4/00</t>
+          <t>0101000020E61000006092CA1473915BC0E5EC9DD156514940</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>100/13-14-038-21W4/00</t>
+          <t>0101000020E6100000325706D5063A5CC072193735D0224A40</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>100/09-15-002-12W4/02</t>
+          <t>0101000020E6100000F6B4C35F93E15BC044334FAE29904840</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>100/09-15-002-12W4/00</t>
+          <t>0101000020E6100000F6B4C35F93E15BC044334FAE29904840</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>100/08-21-062-23W5/00</t>
+          <t>0101000020E6100000BE66B96C74585DC0DCD8EC48F52F4B40</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>100/08-21-062-23W5/02</t>
+          <t>0101000020E6100000BE66B96C74585DC0DCD8EC48F52F4B40</t>
         </is>
       </c>
     </row>
